--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,57 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -100,10 +106,13 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>good</t>
@@ -112,19 +121,25 @@
     <t>important</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>really</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>media</t>
@@ -497,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -616,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9242424242424242</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.8666666666666667</v>
@@ -666,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -784,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.7543859649122807</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -808,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -816,7 +831,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -834,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.64</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -866,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -884,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -916,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -934,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.3939393939393939</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -958,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -966,13 +981,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -984,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.3333333333333333</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1008,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1016,13 +1031,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5652173913043478</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1034,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.3333333333333333</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1066,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5507246376811594</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C13">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1084,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.2204007285974499</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L13">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1108,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>856</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1116,13 +1131,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1134,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.1368421052631579</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1187,16 +1202,16 @@
         <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.03162650602409638</v>
+        <v>0.2240437158469945</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>643</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1216,13 +1231,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1234,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.03148148148148148</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1258,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>523</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1266,37 +1281,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.358974358974359</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>14</v>
       </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>25</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.0204865556978233</v>
+        <v>0.03084415584415584</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1308,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>765</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1316,49 +1331,175 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.04026845637583892</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>26</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>0.02710843373493976</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>65</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="L19">
         <v>12</v>
       </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>0.08</v>
-      </c>
-      <c r="F18">
-        <v>0.92</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>286</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="L18">
-        <v>31</v>
-      </c>
-      <c r="M18">
-        <v>31</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1705</v>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.0436241610738255</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>285</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.01792573623559539</v>
+      </c>
+      <c r="L20">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <v>14</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>0.01209677419354839</v>
+      </c>
+      <c r="L21">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>21</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
